--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_3/bcw_train_40_test_60_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_3/bcw_train_40_test_60_depth_3_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.9067796610169492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8976377952755905</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.890625</v>
+        <v>0.9490022172949002</v>
       </c>
       <c r="E2" t="n">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9389671361502347</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.9012875536480687</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9113440331913965</v>
+        <v>0.9486728493763992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9139351767075627</v>
+        <v>0.9110602453763047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9126022196261683</v>
+        <v>0.9251448854714844</v>
       </c>
       <c r="E5" t="n">
         <v>342</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9184517321983491</v>
+        <v>0.9378933155295232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9181286549707602</v>
+        <v>0.9327485380116959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.91825717672296</v>
+        <v>0.9312836141278019</v>
       </c>
       <c r="E6" t="n">
         <v>342</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_3/bcw_train_40_test_60_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_3/bcw_train_40_test_60_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9067796610169492</v>
+        <v>0.91</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953488372093023</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9490022172949002</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>215</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9905660377358491</v>
+        <v>0.99</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8267716535433071</v>
+        <v>0.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9012875536480687</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
         <v>127</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9327485380116959</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9327485380116959</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9327485380116959</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9327485380116959</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9486728493763992</v>
+        <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9110602453763047</v>
+        <v>0.91</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9251448854714844</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
         <v>342</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9378933155295232</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9327485380116959</v>
+        <v>0.93</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9312836141278019</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="n">
         <v>342</v>
